--- a/docs/Final Project Plan - DESA.xlsx
+++ b/docs/Final Project Plan - DESA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingqambuza\WORKSHOP-LOCAL\DSM\DESA-PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingqambuza\WORKSHOP-LOCAL\DESA24\DESA-ODC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C648A-0186-4D43-A8DD-6ED7DCD29959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31308D83-D0E6-41B1-801E-E47F5A1ED5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{F2C006DE-67B3-4465-B715-C8F152A6B4FE}"/>
+    <workbookView xWindow="14205" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{F2C006DE-67B3-4465-B715-C8F152A6B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>Activity</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Low &amp; high-level ODC architecture</t>
-  </si>
-  <si>
-    <t>Indiphile Ngqambuza</t>
   </si>
   <si>
     <t>DESA Infrastructure and Applications</t>
@@ -184,9 +181,6 @@
     <t>DESA Backend Software Components</t>
   </si>
   <si>
-    <t>Indiphile Ngqambuza &amp; Asanda Lamba</t>
-  </si>
-  <si>
     <t>Frontend,backend, APIs and Databas Schemas</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Indiphile Ngqambuza &amp; Maite Marageni</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiphile Ngqambuza &amp; Asanda Lamba </t>
-  </si>
-  <si>
     <t>DESA  System Integration</t>
   </si>
   <si>
@@ -277,12 +268,6 @@
     <t>Types of Test, Tools to be used</t>
   </si>
   <si>
-    <t>Indiphile , Karabo Mithi, Tebogo Ramokgopa</t>
-  </si>
-  <si>
-    <t>Indiphile,Asanda Lamba,Maite Marageni</t>
-  </si>
-  <si>
     <t>Frontend and Backend components</t>
   </si>
   <si>
@@ -305,6 +290,42 @@
   </si>
   <si>
     <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Indiphile Ngqambuza  &amp; Asanda Lamba</t>
+  </si>
+  <si>
+    <t>Indiphile Ngqambuza &amp; Kiren Padayachee</t>
+  </si>
+  <si>
+    <t>Indiphile Ngqambuza, Asanda Lamba &amp; Kiren Padayachee</t>
+  </si>
+  <si>
+    <t>Indiphile Ngqambuz,Kiren Padayachee</t>
+  </si>
+  <si>
+    <t>Indiphile,Asanda Lamba,Maite Marageni &amp; ,Kiren Padayachee</t>
+  </si>
+  <si>
+    <t>Indiphile,Asanda Lamba,Maite Marageni, Kiren Padayachee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiphile,Asanda Lamba,Maite Marageni &amp; Kiren Padayachee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiphile Ngqambuza &amp; Kiren Padayachee </t>
+  </si>
+  <si>
+    <t>Indiphile , Karabo Mithi, Tebogo Ramokgopa &amp; Kiren Padayachee</t>
   </si>
 </sst>
 </file>
@@ -822,24 +843,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D318FCE-7179-4C0A-A8ED-C66A5AD95228}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5546875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="13.5546875" style="3"/>
+    <col min="1" max="9" width="13.5546875" style="3"/>
+    <col min="10" max="10" width="9.33203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="13.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -850,9 +873,9 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -863,9 +886,9 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -876,9 +899,9 @@
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -889,7 +912,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -917,8 +940,14 @@
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -926,13 +955,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4">
         <v>45453</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4">
         <v>45457</v>
@@ -942,22 +971,25 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4">
         <v>45453</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4">
         <v>45457</v>
@@ -967,22 +999,25 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="J7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>45460</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4">
         <v>45464</v>
@@ -992,16 +1027,19 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1011,22 +1049,25 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="J9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4">
         <v>45467</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4">
         <v>45471</v>
@@ -1036,22 +1077,25 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4">
         <v>45467</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4">
         <v>45471</v>
@@ -1060,24 +1104,27 @@
         <v>45471</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4">
         <v>45474</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4">
         <v>45478</v>
@@ -1087,22 +1134,25 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4">
         <v>45481</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4">
         <v>45492</v>
@@ -1112,22 +1162,25 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D14" s="4">
         <v>45495</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4">
         <v>45506</v>
@@ -1137,22 +1190,22 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4">
         <v>45516</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4">
         <v>45520</v>
@@ -1162,22 +1215,22 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4">
         <v>45523</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4">
         <v>45534</v>
@@ -1187,22 +1240,22 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D17" s="4">
         <v>45537</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4">
         <v>45541</v>
@@ -1212,24 +1265,24 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4">
         <v>45544</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="4">
         <v>45548</v>
@@ -1239,22 +1292,22 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>45551</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="4">
         <v>45555</v>
@@ -1264,22 +1317,22 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D20" s="4">
         <v>45558</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="4">
         <v>45562</v>
@@ -1289,22 +1342,22 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D21" s="4">
         <v>45565</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="4">
         <v>45569</v>
@@ -1314,22 +1367,22 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D22" s="4">
         <v>45572</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="4">
         <v>45576</v>
@@ -1339,7 +1392,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
@@ -1347,16 +1400,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4">
         <v>45579</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="4">
         <v>45583</v>
@@ -1366,22 +1419,22 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D24" s="4">
         <v>45586</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="4">
         <v>45590</v>
@@ -1391,22 +1444,22 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4">
         <v>45593</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="4">
         <v>45597</v>
@@ -1416,22 +1469,22 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D26" s="4">
         <v>45600</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="4">
         <v>45604</v>
@@ -1440,22 +1493,22 @@
         <v>45625</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4">
         <v>45607</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="4">
         <v>45611</v>
@@ -1464,22 +1517,22 @@
         <v>45625</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4">
         <v>45614</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="4">
         <v>45618</v>
@@ -1488,22 +1541,22 @@
         <v>45625</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D29" s="4">
         <v>45621</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="4">
         <v>45625</v>
@@ -1512,7 +1565,7 @@
         <v>45625</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
@@ -1520,16 +1573,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4">
         <v>45628</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="4">
         <v>45632</v>
@@ -1543,16 +1596,16 @@
     <row r="31" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4">
         <v>46000</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="4">
         <v>46011</v>
@@ -1562,22 +1615,22 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="4">
         <v>45670</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="4">
         <v>45674</v>
@@ -1587,7 +1640,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Final Project Plan - DESA.xlsx
+++ b/docs/Final Project Plan - DESA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingqambuza\WORKSHOP-LOCAL\DESA24\DESA-ODC\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingqambuza\WORKSHOP-LOCAL\DSM\DESA-PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31308D83-D0E6-41B1-801E-E47F5A1ED5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C648A-0186-4D43-A8DD-6ED7DCD29959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{F2C006DE-67B3-4465-B715-C8F152A6B4FE}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{F2C006DE-67B3-4465-B715-C8F152A6B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Activity</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Low &amp; high-level ODC architecture</t>
+  </si>
+  <si>
+    <t>Indiphile Ngqambuza</t>
   </si>
   <si>
     <t>DESA Infrastructure and Applications</t>
@@ -181,6 +184,9 @@
     <t>DESA Backend Software Components</t>
   </si>
   <si>
+    <t>Indiphile Ngqambuza &amp; Asanda Lamba</t>
+  </si>
+  <si>
     <t>Frontend,backend, APIs and Databas Schemas</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>Indiphile Ngqambuza &amp; Maite Marageni</t>
   </si>
   <si>
+    <t xml:space="preserve">Indiphile Ngqambuza &amp; Asanda Lamba </t>
+  </si>
+  <si>
     <t>DESA  System Integration</t>
   </si>
   <si>
@@ -268,6 +277,12 @@
     <t>Types of Test, Tools to be used</t>
   </si>
   <si>
+    <t>Indiphile , Karabo Mithi, Tebogo Ramokgopa</t>
+  </si>
+  <si>
+    <t>Indiphile,Asanda Lamba,Maite Marageni</t>
+  </si>
+  <si>
     <t>Frontend and Backend components</t>
   </si>
   <si>
@@ -290,42 +305,6 @@
   </si>
   <si>
     <t>Functional Testing</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
-    <t>Indiphile Ngqambuza  &amp; Asanda Lamba</t>
-  </si>
-  <si>
-    <t>Indiphile Ngqambuza &amp; Kiren Padayachee</t>
-  </si>
-  <si>
-    <t>Indiphile Ngqambuza, Asanda Lamba &amp; Kiren Padayachee</t>
-  </si>
-  <si>
-    <t>Indiphile Ngqambuz,Kiren Padayachee</t>
-  </si>
-  <si>
-    <t>Indiphile,Asanda Lamba,Maite Marageni &amp; ,Kiren Padayachee</t>
-  </si>
-  <si>
-    <t>Indiphile,Asanda Lamba,Maite Marageni, Kiren Padayachee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiphile,Asanda Lamba,Maite Marageni &amp; Kiren Padayachee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiphile Ngqambuza &amp; Kiren Padayachee </t>
-  </si>
-  <si>
-    <t>Indiphile , Karabo Mithi, Tebogo Ramokgopa &amp; Kiren Padayachee</t>
   </si>
 </sst>
 </file>
@@ -843,26 +822,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D318FCE-7179-4C0A-A8ED-C66A5AD95228}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5546875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="13.5546875" style="3"/>
-    <col min="10" max="10" width="9.33203125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="13.5546875" style="3"/>
+    <col min="1" max="16384" width="13.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -873,9 +850,9 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -886,9 +863,9 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -899,9 +876,9 @@
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -912,7 +889,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -940,14 +917,8 @@
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -955,13 +926,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D6" s="4">
         <v>45453</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>45457</v>
@@ -971,25 +942,22 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4">
         <v>45453</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4">
         <v>45457</v>
@@ -999,25 +967,22 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>45460</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4">
         <v>45464</v>
@@ -1027,19 +992,16 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1049,25 +1011,22 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4">
         <v>45467</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4">
         <v>45471</v>
@@ -1077,25 +1036,22 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4">
         <v>45467</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4">
         <v>45471</v>
@@ -1104,27 +1060,24 @@
         <v>45471</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4">
         <v>45474</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
         <v>45478</v>
@@ -1134,25 +1087,22 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4">
         <v>45481</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4">
         <v>45492</v>
@@ -1162,25 +1112,22 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4">
         <v>45495</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F14" s="4">
         <v>45506</v>
@@ -1190,22 +1137,22 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="4">
         <v>45516</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4">
         <v>45520</v>
@@ -1215,22 +1162,22 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4">
         <v>45523</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4">
         <v>45534</v>
@@ -1240,22 +1187,22 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>45537</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="4">
         <v>45541</v>
@@ -1265,24 +1212,24 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
         <v>45544</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4">
         <v>45548</v>
@@ -1292,22 +1239,22 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4">
         <v>45551</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4">
         <v>45555</v>
@@ -1317,22 +1264,22 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D20" s="4">
         <v>45558</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4">
         <v>45562</v>
@@ -1342,22 +1289,22 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4">
         <v>45565</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" s="4">
         <v>45569</v>
@@ -1367,22 +1314,22 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4">
         <v>45572</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4">
         <v>45576</v>
@@ -1392,7 +1339,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
@@ -1400,16 +1347,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D23" s="4">
         <v>45579</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="4">
         <v>45583</v>
@@ -1419,22 +1366,22 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4">
         <v>45586</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4">
         <v>45590</v>
@@ -1444,22 +1391,22 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4">
         <v>45593</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" s="4">
         <v>45597</v>
@@ -1469,22 +1416,22 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D26" s="4">
         <v>45600</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26" s="4">
         <v>45604</v>
@@ -1493,22 +1440,22 @@
         <v>45625</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27" s="4">
         <v>45607</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" s="4">
         <v>45611</v>
@@ -1517,22 +1464,22 @@
         <v>45625</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4">
         <v>45614</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" s="4">
         <v>45618</v>
@@ -1541,22 +1488,22 @@
         <v>45625</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D29" s="4">
         <v>45621</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" s="4">
         <v>45625</v>
@@ -1565,7 +1512,7 @@
         <v>45625</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
@@ -1573,16 +1520,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4">
         <v>45628</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="4">
         <v>45632</v>
@@ -1596,16 +1543,16 @@
     <row r="31" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="4">
         <v>46000</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" s="4">
         <v>46011</v>
@@ -1615,22 +1562,22 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4">
         <v>45670</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4">
         <v>45674</v>
@@ -1640,7 +1587,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
